--- a/files/2.xlsx
+++ b/files/2.xlsx
@@ -1950,6 +1950,21 @@
           <t>(1994 Onwards)</t>
         </is>
       </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -1967,6 +1982,21 @@
           <t>(2012 Onwards)</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2108,10 +2138,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U41:X41"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>